--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_188.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_188.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,694 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.700000', '0:00:18.640000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2342342342342342</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:00:49.640000', '0:01:03.900000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:11.129160', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3517156862745098</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[('0:00:09.060000', '0:00:13.120000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4318181818181818</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.5, 5.58)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:06.726778', '0:00:14.737663')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[('0:00:12.420000', '0:00:27.080000'), ('0:01:13.620000', '0:01:21.040000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:13.600000', '0:00:17.780000'), ('0:00:31.340000', '0:00:33.520000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:32.060000', '0:00:33.280000'), ('0:00:08.200000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:10.760000', '0:00:23.600000'), ('0:00:47.140000', '0:00:55.200000'), ('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.64, 14.0)]</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1018099547511312</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'E']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(19.371814, 23.760385)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.346961, 13.218526)]</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.6, 39.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(34.86, 39.7)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
